--- a/Turf/turf_report.xlsx
+++ b/Turf/turf_report.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="TURF分析" sheetId="1" r:id="rId1"/>
+    <sheet name="G图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
   <si>
     <t>变量</t>
   </si>
@@ -268,130 +269,175 @@
 63%</t>
   </si>
   <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>97%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>17.4%</t>
+  </si>
+  <si>
+    <t>28.9%</t>
+  </si>
+  <si>
+    <t>37.1%</t>
+  </si>
+  <si>
+    <t>42.4%</t>
+  </si>
+  <si>
+    <t>46.3%</t>
+  </si>
+  <si>
+    <t>49.3%</t>
+  </si>
+  <si>
+    <t>51.6%</t>
+  </si>
+  <si>
+    <t>53.4%</t>
+  </si>
+  <si>
+    <t>54.9%</t>
+  </si>
+  <si>
+    <t>56.1%</t>
+  </si>
+  <si>
+    <t>57.0%</t>
+  </si>
+  <si>
+    <t>57.9%</t>
+  </si>
+  <si>
+    <t>58.6%</t>
+  </si>
+  <si>
+    <t>59.3%</t>
+  </si>
+  <si>
+    <t>59.9%</t>
+  </si>
+  <si>
+    <t>60.4%</t>
+  </si>
+  <si>
+    <t>60.8%</t>
+  </si>
+  <si>
+    <t>61.2%</t>
+  </si>
+  <si>
+    <t>61.6%</t>
+  </si>
+  <si>
+    <t>61.9%</t>
+  </si>
+  <si>
+    <t>62.2%</t>
+  </si>
+  <si>
+    <t>62.5%</t>
+  </si>
+  <si>
+    <t>62.7%</t>
+  </si>
+  <si>
+    <t>62.8%</t>
+  </si>
+  <si>
+    <t>63.0%</t>
+  </si>
+  <si>
+    <t>63.1%</t>
+  </si>
+  <si>
+    <t>63.2%</t>
+  </si>
+  <si>
+    <t>63.3%</t>
+  </si>
+  <si>
+    <t>8.3%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
+  </si>
+  <si>
+    <t>23.9%</t>
+  </si>
+  <si>
+    <t>31.8%</t>
+  </si>
+  <si>
+    <t>37.6%</t>
+  </si>
+  <si>
+    <t>43.7%</t>
+  </si>
+  <si>
+    <t>48.6%</t>
+  </si>
+  <si>
+    <t>54.7%</t>
+  </si>
+  <si>
+    <t>57.4%</t>
+  </si>
+  <si>
+    <t>60.3%</t>
+  </si>
+  <si>
+    <t>65.5%</t>
+  </si>
+  <si>
+    <t>67.6%</t>
+  </si>
+  <si>
+    <t>72.3%</t>
+  </si>
+  <si>
+    <t>74.6%</t>
+  </si>
+  <si>
+    <t>77.2%</t>
+  </si>
+  <si>
+    <t>79.1%</t>
+  </si>
+  <si>
+    <t>81.1%</t>
+  </si>
+  <si>
+    <t>82.2%</t>
+  </si>
+  <si>
+    <t>84.3%</t>
+  </si>
+  <si>
+    <t>85.8%</t>
+  </si>
+  <si>
+    <t>87.5%</t>
+  </si>
+  <si>
+    <t>90.4%</t>
+  </si>
+  <si>
+    <t>91.1%</t>
+  </si>
+  <si>
+    <t>92.4%</t>
+  </si>
+  <si>
+    <t>94.6%</t>
+  </si>
+  <si>
+    <t>95.7%</t>
+  </si>
+  <si>
+    <t>97.3%</t>
+  </si>
+  <si>
+    <t>98.5%</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
   <si>
     <t>最佳到达率及频率（按组大小排列）</t>
@@ -476,7 +522,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,16 +537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>463312</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465222</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>15250</xdr:rowOff>
+      <xdr:rowOff>91451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -517,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8277225" y="381000"/>
-          <a:ext cx="7778512" cy="4968250"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10552197" cy="5425451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -880,7 +926,7 @@
         <v>521</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -903,7 +949,7 @@
         <v>1001</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -926,7 +972,7 @@
         <v>1494</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -949,7 +995,7 @@
         <v>1988</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -972,7 +1018,7 @@
         <v>2355</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -995,7 +1041,7 @@
         <v>2732</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1018,7 +1064,7 @@
         <v>3039</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1041,7 +1087,7 @@
         <v>3425</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1064,7 +1110,7 @@
         <v>3591</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1087,7 +1133,7 @@
         <v>3773</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1110,7 +1156,7 @@
         <v>4095</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1127,13 +1173,13 @@
         <v>1736</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3">
         <v>4227</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1150,13 +1196,13 @@
         <v>1758</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3">
         <v>4523</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1173,13 +1219,13 @@
         <v>1779</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3">
         <v>4666</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1196,13 +1242,13 @@
         <v>1796</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F18" s="3">
         <v>4828</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1219,13 +1265,13 @@
         <v>1811</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3">
         <v>4947</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1242,13 +1288,13 @@
         <v>1825</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3">
         <v>5072</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1265,13 +1311,13 @@
         <v>1837</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3">
         <v>5144</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1288,13 +1334,13 @@
         <v>1848</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3">
         <v>5274</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1311,13 +1357,13 @@
         <v>1858</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F23" s="3">
         <v>5370</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1334,13 +1380,13 @@
         <v>1867</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3">
         <v>5476</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1357,13 +1403,13 @@
         <v>1874</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F25" s="3">
         <v>5657</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1380,13 +1426,13 @@
         <v>1880</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3">
         <v>5697</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1403,13 +1449,13 @@
         <v>1885</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3">
         <v>5782</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1426,13 +1472,13 @@
         <v>1889</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3">
         <v>5918</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1449,13 +1495,13 @@
         <v>1893</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3">
         <v>5984</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1472,13 +1518,13 @@
         <v>1895</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3">
         <v>6088</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1495,13 +1541,13 @@
         <v>1897</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3">
         <v>6165</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1518,13 +1564,13 @@
         <v>1899</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F32" s="3">
         <v>6256</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1532,6 +1578,21 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Turf/turf_report.xlsx
+++ b/Turf/turf_report.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>变量</t>
-  </si>
-  <si>
-    <t>统计</t>
   </si>
   <si>
     <t>组大小</t>
@@ -151,122 +148,6 @@
   <si>
     <t>ADDED: JK11A
 KEPT: JK23A, JK13A, JK14A, JK15A, JK5A, JK26A, JK7A, JK22A, JK28A, JK16A, JK21A, JK17A, JK6A, JK12A, JK8A, JK19A, JK2A, JK18A, JK1A, JK24A, JK3A, JK25A, JK29A, JK27A, JK9A, JK20A, JK4A, JK10A</t>
-  </si>
-  <si>
-    <t>521
-17%</t>
-  </si>
-  <si>
-    <t>868
-29%</t>
-  </si>
-  <si>
-    <t>1114
-37%</t>
-  </si>
-  <si>
-    <t>1271
-42%</t>
-  </si>
-  <si>
-    <t>1389
-46%</t>
-  </si>
-  <si>
-    <t>1478
-49%</t>
-  </si>
-  <si>
-    <t>1549
-52%</t>
-  </si>
-  <si>
-    <t>1603
-53%</t>
-  </si>
-  <si>
-    <t>1648
-55%</t>
-  </si>
-  <si>
-    <t>1682
-56%</t>
-  </si>
-  <si>
-    <t>1711
-57%</t>
-  </si>
-  <si>
-    <t>1736
-58%</t>
-  </si>
-  <si>
-    <t>1758
-59%</t>
-  </si>
-  <si>
-    <t>1779
-59%</t>
-  </si>
-  <si>
-    <t>1796
-60%</t>
-  </si>
-  <si>
-    <t>1811
-60%</t>
-  </si>
-  <si>
-    <t>1825
-61%</t>
-  </si>
-  <si>
-    <t>1837
-61%</t>
-  </si>
-  <si>
-    <t>1848
-62%</t>
-  </si>
-  <si>
-    <t>1858
-62%</t>
-  </si>
-  <si>
-    <t>1867
-62%</t>
-  </si>
-  <si>
-    <t>1874
-62%</t>
-  </si>
-  <si>
-    <t>1880
-63%</t>
-  </si>
-  <si>
-    <t>1885
-63%</t>
-  </si>
-  <si>
-    <t>1889
-63%</t>
-  </si>
-  <si>
-    <t>1893
-63%</t>
-  </si>
-  <si>
-    <t>1895
-63%</t>
-  </si>
-  <si>
-    <t>1897
-63%</t>
-  </si>
-  <si>
-    <t>1899
-63%</t>
   </si>
   <si>
     <t>17.4%</t>
@@ -874,7 +755,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -902,675 +783,585 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
         <v>521</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
         <v>521</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>93</v>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
         <v>868</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
         <v>1001</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>94</v>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
         <v>1114</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3">
         <v>1494</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>95</v>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
         <v>1271</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
         <v>1988</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>96</v>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
         <v>1389</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3">
         <v>2355</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>97</v>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
         <v>1478</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
         <v>2732</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>98</v>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
         <v>1549</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
         <v>3039</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>99</v>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
         <v>1603</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
         <v>3425</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>100</v>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
         <v>1648</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3">
         <v>3591</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>101</v>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
         <v>1682</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
         <v>3773</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>102</v>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
         <v>1711</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3">
         <v>4095</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>103</v>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
         <v>1736</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
         <v>4227</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>104</v>
+      <c r="F15" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1758</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4523</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1779</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1758</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3">
+        <v>4666</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1796</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4828</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="3">
-        <v>4523</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1811</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4947</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1825</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5072</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1837</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5144</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1848</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5274</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1779</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4666</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="C23" s="3">
+        <v>1858</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5370</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1796</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4828</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
+      <c r="C24" s="3">
+        <v>1867</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5476</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1811</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4947</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="C25" s="3">
+        <v>1874</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5657</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1825</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5072</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="C26" s="3">
+        <v>1880</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5697</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3">
-        <v>18</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1837</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5144</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="C27" s="3">
+        <v>1885</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5782</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1848</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5274</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="C28" s="3">
+        <v>1889</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5918</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1858</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5370</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="C29" s="3">
+        <v>1893</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5984</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1867</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5476</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="C30" s="3">
+        <v>1895</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6088</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1874</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5657</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
+      <c r="C31" s="3">
+        <v>1897</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6165</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1880</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5697</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1885</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5782</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1889</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5918</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1893</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5984</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C32" s="3">
+        <v>1899</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1895</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="E32" s="3">
+        <v>6256</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6088</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="3">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1897</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="3">
-        <v>6165</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1899</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6256</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
